--- a/w_2024.xlsx
+++ b/w_2024.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2012" uniqueCount="1809">
   <si>
-    <t>Number</t>
+    <t>Tahun</t>
   </si>
   <si>
     <t>Comments</t>
@@ -5458,39 +5458,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5502,7 +5480,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5510,14 +5519,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -5531,47 +5563,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
@@ -5579,32 +5572,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5622,6 +5593,28 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -5632,25 +5625,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5662,43 +5643,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5716,7 +5685,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5728,91 +5805,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5826,22 +5819,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5855,11 +5843,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5879,32 +5873,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5923,157 +5896,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -6417,10 +6409,10 @@
   <dimension ref="A1:B2023"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A2023"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
     <col min="2" max="2" width="9" style="1"/>
   </cols>
@@ -6893,7 +6885,7 @@
       <c r="A59">
         <v>2024</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -7077,7 +7069,7 @@
       <c r="A82">
         <v>2024</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" s="1" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9613,7 +9605,7 @@
       <c r="A399">
         <v>2024</v>
       </c>
-      <c r="B399" s="2" t="s">
+      <c r="B399" s="1" t="s">
         <v>386</v>
       </c>
     </row>
@@ -11005,7 +10997,7 @@
       <c r="A573">
         <v>2024</v>
       </c>
-      <c r="B573" s="2" t="s">
+      <c r="B573" s="1" t="s">
         <v>558</v>
       </c>
     </row>
@@ -13061,7 +13053,7 @@
       <c r="A830">
         <v>2024</v>
       </c>
-      <c r="B830" s="2" t="s">
+      <c r="B830" s="1" t="s">
         <v>810</v>
       </c>
     </row>
@@ -13421,7 +13413,7 @@
       <c r="A875">
         <v>2024</v>
       </c>
-      <c r="B875" s="2" t="s">
+      <c r="B875" s="1" t="s">
         <v>851</v>
       </c>
     </row>
@@ -19293,7 +19285,7 @@
       <c r="A1609">
         <v>2024</v>
       </c>
-      <c r="B1609" s="2" t="s">
+      <c r="B1609" s="1" t="s">
         <v>851</v>
       </c>
     </row>
@@ -20181,7 +20173,7 @@
       <c r="A1720">
         <v>2024</v>
       </c>
-      <c r="B1720" s="2" t="s">
+      <c r="B1720" s="1" t="s">
         <v>1529</v>
       </c>
     </row>
@@ -22269,7 +22261,7 @@
       <c r="A1981">
         <v>2024</v>
       </c>
-      <c r="B1981" s="2" t="s">
+      <c r="B1981" s="1" t="s">
         <v>1770</v>
       </c>
     </row>
@@ -22624,7 +22616,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
